--- a/仕様書とか/WBS.xlsx
+++ b/仕様書とか/WBS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Work Breakdown Structure</t>
     <phoneticPr fontId="1"/>
@@ -61,16 +61,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クエリ作成の実装</t>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -399,34 +389,49 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ここが出来るまで他の場所はSQL文をクリップボードにコピーしてコマンドラインで実行で確認</t>
-    <rPh sb="3" eb="5">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>同人誌管理ソフト</t>
     <rPh sb="0" eb="3">
       <t>ドウジンシ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り工数</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クエリ作成処理</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -761,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -772,18 +777,18 @@
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="25.125" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -791,98 +796,107 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E6" t="s">
-        <v>28</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -890,137 +904,155 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="H16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17">
         <v>6</v>
       </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -1028,7 +1060,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -1036,7 +1068,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -1044,20 +1076,39 @@
     </row>
     <row r="35" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
         <v>31</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F35">
         <v>10</v>
       </c>
     </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36">
+        <f>SUM(F4:F35)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G40">
+      <formula1>"途中,完了"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/仕様書とか/WBS.xlsx
+++ b/仕様書とか/WBS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Work Breakdown Structure</t>
     <phoneticPr fontId="1"/>
@@ -61,6 +61,16 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クエリ作成の実装</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -389,49 +399,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ここが出来るまで他の場所はSQL文をクリップボードにコピーしてコマンドラインで実行で確認</t>
+    <rPh sb="3" eb="5">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>同人誌管理ソフト</t>
     <rPh sb="0" eb="3">
       <t>ドウジンシ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>進捗</t>
-    <rPh sb="0" eb="2">
-      <t>シンチョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完了</t>
-  </si>
-  <si>
-    <t>合計</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>残り工数</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クエリ作成処理</t>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -766,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -777,18 +772,18 @@
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="25.125" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -796,107 +791,98 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -904,155 +890,137 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
-      <c r="G20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -1060,7 +1028,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -1068,7 +1036,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -1076,39 +1044,20 @@
     </row>
     <row r="35" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F35">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E36" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36">
-        <f>SUM(F4:F35)</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E37" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G40">
-      <formula1>"途中,完了"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/仕様書とか/WBS.xlsx
+++ b/仕様書とか/WBS.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shunki\Documents\teamMssan\仕様書とか\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Work Breakdown Structure</t>
     <phoneticPr fontId="1"/>
@@ -434,6 +429,9 @@
       <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>途中</t>
   </si>
 </sst>
 </file>
@@ -758,7 +756,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -768,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -882,6 +880,9 @@
       <c r="F12">
         <v>4</v>
       </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E13" t="s">

--- a/仕様書とか/WBS.xlsx
+++ b/仕様書とか/WBS.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shunki\Documents\teamMssan\仕様書とか\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Work Breakdown Structure</t>
     <phoneticPr fontId="1"/>
@@ -756,7 +761,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -766,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -923,6 +928,9 @@
       <c r="F17">
         <v>6</v>
       </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
@@ -985,6 +993,9 @@
       </c>
       <c r="F23">
         <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">

--- a/仕様書とか/WBS.xlsx
+++ b/仕様書とか/WBS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Work Breakdown Structure</t>
     <phoneticPr fontId="1"/>
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -896,6 +896,9 @@
       <c r="F13">
         <v>3</v>
       </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D14" t="s">

--- a/仕様書とか/WBS.xlsx
+++ b/仕様書とか/WBS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Work Breakdown Structure</t>
     <phoneticPr fontId="1"/>
@@ -409,13 +409,6 @@
     <t>完了</t>
   </si>
   <si>
-    <t>合計</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>残り工数</t>
     <rPh sb="0" eb="1">
       <t>ノコ</t>
@@ -437,13 +430,39 @@
   </si>
   <si>
     <t>途中</t>
+  </si>
+  <si>
+    <t>全体進捗率</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シンチョクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要合計工数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +475,15 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -482,12 +510,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -886,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -896,9 +927,6 @@
       <c r="F13">
         <v>3</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
@@ -926,7 +954,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -998,7 +1026,7 @@
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
@@ -1105,7 +1133,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F36">
         <f>SUM(F4:F35)</f>
@@ -1114,7 +1142,20 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E37" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="F37">
+        <f>SUM(F4:F35)-SUMIF(G4:G35,"完了",F4:F35)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="2">
+        <f>1-F37/F36</f>
+        <v>0.29487179487179482</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書とか/WBS.xlsx
+++ b/仕様書とか/WBS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Work Breakdown Structure</t>
     <phoneticPr fontId="1"/>
@@ -451,6 +451,16 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>類似サークル、作者サジェスト</t>
+    <rPh sb="0" eb="2">
+      <t>ルイジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -800,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1026,142 +1036,150 @@
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>1</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D25" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E26" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E27" t="s">
         <v>14</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D27" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D28" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E31" t="s">
         <v>19</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D31" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D32" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E35" t="s">
         <v>19</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
+    <row r="36" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
         <v>30</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E36" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36">
-        <f>SUM(F4:F35)</f>
-        <v>78</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E37" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F37">
-        <f>SUM(F4:F35)-SUMIF(G4:G35,"完了",F4:F35)</f>
-        <v>55</v>
+        <f>SUM(F4:F36)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38">
+        <f>SUM(F4:F36)-SUMIF(G4:G36,"完了",F4:F36)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E39" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="2">
-        <f>1-F37/F36</f>
-        <v>0.29487179487179482</v>
+      <c r="F39" s="2">
+        <f>1-F38/F37</f>
+        <v>0.32530120481927716</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G41">
       <formula1>"途中,完了"</formula1>
     </dataValidation>
   </dataValidations>

--- a/仕様書とか/WBS.xlsx
+++ b/仕様書とか/WBS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>Work Breakdown Structure</t>
     <phoneticPr fontId="1"/>
@@ -138,16 +138,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リストボックスへ読み込み</t>
-    <rPh sb="8" eb="9">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コンボボックスに作品名の取得</t>
     <rPh sb="8" eb="11">
       <t>サクヒンメイ</t>
@@ -272,19 +262,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リストボックスへ自動読み込み</t>
-    <rPh sb="8" eb="10">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>検索処理</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -301,36 +278,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>add</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規作成処理を継承
-処理は引数の有無で制御</t>
-    <rPh sb="0" eb="4">
-      <t>シンキサクセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケイショウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ウム</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セイギョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -461,6 +408,103 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>サクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストビューへ自動読み込み</t>
+    <rPh sb="7" eb="9">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストビューへ読み込み</t>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成処理を継承</t>
+    <rPh sb="0" eb="4">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UPDATE文の処理</t>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDを元にテキストの割り当て</t>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新ボタンの処理</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例外処理</t>
+    <rPh sb="0" eb="4">
+      <t>レイガイショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csvからエクスポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更テキストの背景色変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -810,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -829,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -840,346 +884,415 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
         <v>37</v>
       </c>
-      <c r="F13">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>3</v>
       </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E20" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D22" t="s">
-        <v>7</v>
+      <c r="E22" t="s">
+        <v>15</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>11</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>1</v>
       </c>
-      <c r="G25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D26" t="s">
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D28" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
+      <c r="D29" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D32" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
+      <c r="D33" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37">
-        <f>SUM(F4:F36)</f>
-        <v>83</v>
-      </c>
-    </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E38" t="s">
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D39" s="1"/>
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D40" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D41" s="1"/>
+      <c r="E41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D42" s="1"/>
+      <c r="E42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D43" s="1"/>
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E45" t="s">
         <v>42</v>
       </c>
-      <c r="F38">
-        <f>SUM(F4:F36)-SUMIF(G4:G36,"完了",F4:F36)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E39" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="2">
-        <f>1-F38/F37</f>
-        <v>0.32530120481927716</v>
+      <c r="F45">
+        <f>SUM(F4:F38)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46">
+        <f>SUM(F4:F37)-SUMIF(G4:G37,"完了",F4:F37)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="2">
+        <f>1-F46/F45</f>
+        <v>0.43689320388349517</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G49">
       <formula1>"途中,完了"</formula1>
     </dataValidation>
   </dataValidations>

--- a/仕様書とか/WBS.xlsx
+++ b/仕様書とか/WBS.xlsx
@@ -376,9 +376,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>途中</t>
-  </si>
-  <si>
     <t>全体進捗率</t>
     <rPh sb="0" eb="2">
       <t>ゼンタイ</t>
@@ -505,6 +502,19 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示結果のソート処理</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -854,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -922,7 +932,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -944,94 +954,88 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
       </c>
       <c r="G15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
         <v>4</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
         <v>37</v>
@@ -1039,21 +1043,21 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E20" t="s">
-        <v>6</v>
+      <c r="D20" t="s">
+        <v>13</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" t="s">
         <v>37</v>
@@ -1061,10 +1065,10 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E21" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -1072,7 +1076,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -1082,11 +1086,11 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D23" t="s">
-        <v>7</v>
+      <c r="E23" t="s">
+        <v>15</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
         <v>37</v>
@@ -1094,10 +1098,10 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
         <v>37</v>
@@ -1105,194 +1109,205 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>9</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>10</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D27" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D29" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E33" t="s">
         <v>18</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D33" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D34" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E37" t="s">
         <v>18</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
         <v>28</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37">
+      <c r="F38">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D38" s="1" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D39" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D39" s="1"/>
-      <c r="E39" t="s">
-        <v>49</v>
       </c>
       <c r="F39">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D40" s="1" t="s">
-        <v>50</v>
+      <c r="D40" s="1"/>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D41" s="1"/>
-      <c r="E41" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41">
-        <v>7</v>
+      <c r="D41" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D42" s="1"/>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D43" s="1"/>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D44" s="1"/>
+      <c r="E44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45">
-        <f>SUM(F4:F38)</f>
-        <v>103</v>
-      </c>
+      <c r="D45" s="1"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F46">
-        <f>SUM(F4:F37)-SUMIF(G4:G37,"完了",F4:F37)</f>
-        <v>58</v>
+        <f>SUM(F4:F39)</f>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E47" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="2">
-        <f>1-F46/F45</f>
-        <v>0.43689320388349517</v>
+        <v>38</v>
+      </c>
+      <c r="F47">
+        <f>SUM(F4:F38)-SUMIF(G4:G38,"完了",F4:F38)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="2">
+        <f>1-F47/F46</f>
+        <v>0.46363636363636362</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G50">
       <formula1>"途中,完了"</formula1>
     </dataValidation>
   </dataValidations>

--- a/仕様書とか/WBS.xlsx
+++ b/仕様書とか/WBS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shunki\Documents\teamMssan\仕様書とか\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shunki\Documents\teamMassan\仕様書とか\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>Work Breakdown Structure</t>
     <phoneticPr fontId="1"/>
@@ -489,10 +489,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>csvからエクスポート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>変更テキストの背景色変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
@@ -516,6 +512,10 @@
     <rPh sb="8" eb="10">
       <t>ショリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csvへのエクスポート</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -867,7 +867,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -954,7 +954,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -994,6 +994,9 @@
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
@@ -1002,6 +1005,9 @@
       <c r="F14">
         <v>4</v>
       </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E15" t="s">
@@ -1021,6 +1027,9 @@
       <c r="F16">
         <v>4</v>
       </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
@@ -1174,7 +1183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E33" t="s">
         <v>18</v>
       </c>
@@ -1182,12 +1191,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E35" t="s">
         <v>16</v>
       </c>
@@ -1195,7 +1204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
         <v>17</v>
       </c>
@@ -1203,7 +1212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E37" t="s">
         <v>18</v>
       </c>
@@ -1211,7 +1220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>28</v>
       </c>
@@ -1222,18 +1231,18 @@
         <v>46</v>
       </c>
       <c r="F38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D40" s="1"/>
       <c r="E40" t="s">
         <v>48</v>
@@ -1242,12 +1251,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D41" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D42" s="1"/>
       <c r="E42" t="s">
         <v>47</v>
@@ -1256,16 +1265,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D43" s="1"/>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D44" s="1"/>
       <c r="E44" t="s">
         <v>50</v>
@@ -1274,34 +1283,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E46" t="s">
         <v>41</v>
       </c>
       <c r="F46">
         <f>SUM(F4:F39)</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E47" t="s">
         <v>38</v>
       </c>
       <c r="F47">
         <f>SUM(F4:F38)-SUMIF(G4:G38,"完了",F4:F38)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E48" t="s">
         <v>40</v>
       </c>
       <c r="F48" s="2">
         <f>1-F47/F46</f>
-        <v>0.46363636363636362</v>
+        <v>0.59595959595959602</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書とか/WBS.xlsx
+++ b/仕様書とか/WBS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Work Breakdown Structure</t>
     <phoneticPr fontId="1"/>
@@ -516,6 +516,16 @@
   </si>
   <si>
     <t>csvへのエクスポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソート用のインターフェース実装</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッソウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -864,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -954,108 +964,105 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>4</v>
       </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E15" t="s">
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E16" t="s">
         <v>33</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>3</v>
       </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D16" t="s">
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>4</v>
       </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
         <v>37</v>
@@ -1063,21 +1070,21 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>3</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -1085,10 +1092,10 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E22" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
@@ -1096,7 +1103,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -1106,11 +1113,11 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D24" t="s">
-        <v>7</v>
+      <c r="E24" t="s">
+        <v>15</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" t="s">
         <v>37</v>
@@ -1118,10 +1125,10 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25" t="s">
         <v>37</v>
@@ -1129,194 +1136,205 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
         <v>42</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>10</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>11</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D28" t="s">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E29" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E30" t="s">
         <v>44</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D30" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E34" t="s">
         <v>18</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D34" t="s">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D35" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E38" t="s">
         <v>18</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F38">
         <v>2</v>
       </c>
-      <c r="G38" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
       <c r="D39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D40" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D40" s="1"/>
-      <c r="E40" t="s">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D41" s="1"/>
+      <c r="E41" t="s">
         <v>48</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D41" s="1" t="s">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D42" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D42" s="1"/>
-      <c r="E42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42">
-        <v>7</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D43" s="1"/>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D44" s="1"/>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D45" s="1"/>
+      <c r="E45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E46" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46">
-        <f>SUM(F4:F39)</f>
-        <v>99</v>
-      </c>
+      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E47" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F47">
-        <f>SUM(F4:F38)-SUMIF(G4:G38,"完了",F4:F38)</f>
-        <v>40</v>
+        <f>SUM(F4:F40)</f>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48">
+        <f>SUM(F4:F39)-SUMIF(G4:G39,"完了",F4:F39)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E49" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="2">
-        <f>1-F47/F46</f>
-        <v>0.59595959595959602</v>
+      <c r="F49" s="2">
+        <f>1-F48/F47</f>
+        <v>0.57281553398058249</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G51">
       <formula1>"途中,完了"</formula1>
     </dataValidation>
   </dataValidations>

--- a/仕様書とか/WBS.xlsx
+++ b/仕様書とか/WBS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shunki\Documents\teamMassan\仕様書とか\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\teammassan\仕様書とか\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>Work Breakdown Structure</t>
     <phoneticPr fontId="1"/>
@@ -877,18 +877,18 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -896,7 +896,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -916,7 +916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -924,12 +924,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
         <v>26</v>
       </c>
@@ -940,7 +940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>43</v>
       </c>
@@ -951,7 +951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>27</v>
       </c>
@@ -962,7 +962,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>54</v>
       </c>
@@ -970,7 +970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>52</v>
       </c>
@@ -978,7 +978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>32</v>
       </c>
@@ -989,7 +989,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>53</v>
       </c>
@@ -997,7 +997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>11</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>31</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
         <v>33</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>8</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>5</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>39</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>13</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
         <v>6</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
         <v>14</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
         <v>15</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>7</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>8</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>42</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>9</v>
       </c>
@@ -1166,26 +1166,35 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>44</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
         <v>16</v>
       </c>
@@ -1193,15 +1202,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
         <v>17</v>
       </c>
       <c r="F33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
         <v>18</v>
       </c>
@@ -1209,12 +1221,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>16</v>
       </c>
@@ -1222,15 +1234,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
         <v>17</v>
       </c>
       <c r="F37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>18</v>
       </c>
@@ -1238,7 +1253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>28</v>
       </c>
@@ -1255,12 +1270,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D40" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D41" s="1"/>
       <c r="E41" t="s">
         <v>48</v>
@@ -1269,12 +1284,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D42" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D43" s="1"/>
       <c r="E43" t="s">
         <v>47</v>
@@ -1283,7 +1298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D44" s="1"/>
       <c r="E44" t="s">
         <v>51</v>
@@ -1292,7 +1307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D45" s="1"/>
       <c r="E45" t="s">
         <v>50</v>
@@ -1301,10 +1316,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
         <v>41</v>
       </c>
@@ -1313,22 +1328,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>38</v>
       </c>
       <c r="F48">
         <f>SUM(F4:F39)-SUMIF(G4:G39,"完了",F4:F39)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>40</v>
       </c>
       <c r="F49" s="2">
         <f>1-F48/F47</f>
-        <v>0.57281553398058249</v>
+        <v>0.66990291262135915</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書とか/WBS.xlsx
+++ b/仕様書とか/WBS.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shunki\Documents\teamMassan\仕様書とか\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soryu\Documents\TeamMassan\仕様書とか\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F39F72-6146-4BD3-B194-00D0F756537A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Work Breakdown Structure</t>
     <phoneticPr fontId="1"/>
@@ -532,7 +533,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
@@ -873,22 +874,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -896,7 +897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -916,7 +917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -924,12 +925,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
         <v>26</v>
       </c>
@@ -940,7 +941,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>43</v>
       </c>
@@ -951,7 +952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>27</v>
       </c>
@@ -962,7 +963,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>54</v>
       </c>
@@ -970,7 +971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>52</v>
       </c>
@@ -978,7 +979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>32</v>
       </c>
@@ -989,7 +990,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>53</v>
       </c>
@@ -997,7 +998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>11</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>31</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
         <v>33</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>8</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -1057,7 +1058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>5</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>39</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>13</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
         <v>6</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
         <v>14</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
         <v>15</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>7</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>8</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>42</v>
       </c>
@@ -1153,7 +1154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>9</v>
       </c>
@@ -1167,12 +1168,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>44</v>
       </c>
@@ -1180,12 +1181,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
         <v>16</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
         <v>17</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
         <v>18</v>
       </c>
@@ -1209,12 +1210,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>16</v>
       </c>
@@ -1222,7 +1223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
         <v>17</v>
       </c>
@@ -1230,7 +1231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>18</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>28</v>
       </c>
@@ -1255,12 +1256,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D40" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D41" s="1"/>
       <c r="E41" t="s">
         <v>48</v>
@@ -1268,13 +1269,16 @@
       <c r="F41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D42" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D43" s="1"/>
       <c r="E43" t="s">
         <v>47</v>
@@ -1283,7 +1287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D44" s="1"/>
       <c r="E44" t="s">
         <v>51</v>
@@ -1292,7 +1296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D45" s="1"/>
       <c r="E45" t="s">
         <v>50</v>
@@ -1301,10 +1305,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
         <v>41</v>
       </c>
@@ -1313,7 +1317,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>38</v>
       </c>
@@ -1322,7 +1326,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>40</v>
       </c>
@@ -1334,7 +1338,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G51" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"途中,完了"</formula1>
     </dataValidation>
   </dataValidations>

--- a/仕様書とか/WBS.xlsx
+++ b/仕様書とか/WBS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>Work Breakdown Structure</t>
     <phoneticPr fontId="1"/>
@@ -525,6 +525,16 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サムネイル周りの処理</t>
+    <rPh sb="5" eb="6">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -874,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -996,6 +1006,9 @@
       <c r="F12">
         <v>6</v>
       </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
@@ -1147,67 +1160,64 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D28" t="s">
         <v>42</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>10</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>11</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>1</v>
       </c>
-      <c r="G28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D29" t="s">
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E30" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E31" t="s">
         <v>44</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>3</v>
       </c>
-      <c r="G30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D31" t="s">
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D32" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -1215,37 +1225,37 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E35" t="s">
         <v>18</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>2</v>
       </c>
-      <c r="G34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D35" t="s">
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D36" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" t="s">
         <v>37</v>
@@ -1253,24 +1263,18 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E39" t="s">
         <v>18</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -1280,88 +1284,114 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
       <c r="D40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D41" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D41" s="1"/>
-      <c r="E41" t="s">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D42" s="1"/>
+      <c r="E42" t="s">
         <v>48</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <v>3</v>
       </c>
-      <c r="G41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D42" s="1" t="s">
+      <c r="G42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D43" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D43" s="1"/>
-      <c r="E43" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43">
-        <v>7</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D44" s="1"/>
       <c r="E44" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D45" s="1"/>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D46" s="1"/>
+      <c r="E46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D47" s="1"/>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F47">
-        <f>SUM(F4:F40)</f>
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48">
-        <f>SUM(F4:F39)-SUMIF(G4:G39,"完了",F4:F39)</f>
-        <v>26</v>
-      </c>
+      <c r="D48" s="1"/>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49">
+        <f>SUM(F4:F47)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50">
+        <f>SUM(F4:F47)-SUMIF(G4:G47,"完了",F4:F47)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E51" t="s">
         <v>40</v>
       </c>
-      <c r="F49" s="2">
-        <f>1-F48/F47</f>
-        <v>0.74757281553398058</v>
+      <c r="F51" s="2">
+        <f>1-F50/F49</f>
+        <v>0.63235294117647056</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G53">
       <formula1>"途中,完了"</formula1>
     </dataValidation>
   </dataValidations>

--- a/仕様書とか/WBS.xlsx
+++ b/仕様書とか/WBS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>Work Breakdown Structure</t>
     <phoneticPr fontId="1"/>
@@ -534,6 +534,82 @@
       <t>マワ</t>
     </rPh>
     <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>途中</t>
+  </si>
+  <si>
+    <t>保管先管理</t>
+    <rPh sb="0" eb="2">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bookShelf_manage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面UI作成</t>
+    <rPh sb="0" eb="2">
+      <t>ガメ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロード時処理実装</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規追加処理</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更処理</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除処理</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -884,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -979,6 +1055,9 @@
       <c r="F9">
         <v>10</v>
       </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
@@ -987,6 +1066,9 @@
       <c r="F10">
         <v>5</v>
       </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
@@ -1165,6 +1247,9 @@
       <c r="F27">
         <v>10</v>
       </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
@@ -1285,113 +1370,162 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
         <v>28</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C46" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F40">
+      <c r="F46">
         <v>2</v>
       </c>
-      <c r="G40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D41" s="1" t="s">
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D47" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D42" s="1"/>
-      <c r="E42" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D43" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D44" s="1"/>
-      <c r="E44" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D45" s="1"/>
-      <c r="E45" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D46" s="1"/>
-      <c r="E46" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D47" s="1"/>
-      <c r="E47" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47">
-        <v>7</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E49" t="s">
+      <c r="E48" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D50" s="1"/>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D51" s="1"/>
+      <c r="E51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D52" s="1"/>
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D53" s="1"/>
+      <c r="E53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E55" t="s">
         <v>41</v>
       </c>
-      <c r="F49">
-        <f>SUM(F4:F47)</f>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E50" t="s">
+      <c r="F55">
+        <f>SUM(F4:F53)</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E56" t="s">
         <v>38</v>
       </c>
-      <c r="F50">
-        <f>SUM(F4:F47)-SUMIF(G4:G47,"完了",F4:F47)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E51" t="s">
+      <c r="F56">
+        <f>SUM(F4:F53)-SUMIF(G4:G53,"完了",F4:F53)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="E57" t="s">
         <v>40</v>
       </c>
-      <c r="F51" s="2">
-        <f>1-F50/F49</f>
-        <v>0.63235294117647056</v>
+      <c r="F57" s="2">
+        <f>1-F56/F55</f>
+        <v>0.82835820895522394</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G59">
       <formula1>"途中,完了"</formula1>
     </dataValidation>
   </dataValidations>

--- a/仕様書とか/WBS.xlsx
+++ b/仕様書とか/WBS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
   <si>
     <t>Work Breakdown Structure</t>
     <phoneticPr fontId="1"/>
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1258,6 +1258,9 @@
       <c r="F28">
         <v>5</v>
       </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
@@ -1510,7 +1513,7 @@
       </c>
       <c r="F56">
         <f>SUM(F4:F53)-SUMIF(G4:G53,"完了",F4:F53)</f>
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.15">
@@ -1519,7 +1522,7 @@
       </c>
       <c r="F57" s="2">
         <f>1-F56/F55</f>
-        <v>0.82835820895522394</v>
+        <v>0.86567164179104483</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書とか/WBS.xlsx
+++ b/仕様書とか/WBS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>Work Breakdown Structure</t>
     <phoneticPr fontId="1"/>
@@ -537,9 +537,6 @@
       <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>途中</t>
   </si>
   <si>
     <t>保管先管理</t>
@@ -962,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1373,48 +1370,63 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
         <v>57</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>58</v>
-      </c>
-      <c r="D40" t="s">
-        <v>59</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F42">
         <v>2</v>
       </c>
+      <c r="G42" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F44">
         <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
@@ -1464,6 +1476,9 @@
       <c r="F50">
         <v>2</v>
       </c>
+      <c r="G50" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D51" s="1"/>
@@ -1473,6 +1488,9 @@
       <c r="F51">
         <v>2</v>
       </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D52" s="1"/>
@@ -1482,6 +1500,9 @@
       <c r="F52">
         <v>4</v>
       </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D53" s="1"/>
@@ -1492,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.15">
@@ -1513,7 +1534,7 @@
       </c>
       <c r="F56">
         <f>SUM(F4:F53)-SUMIF(G4:G53,"完了",F4:F53)</f>
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.15">
@@ -1522,7 +1543,7 @@
       </c>
       <c r="F57" s="2">
         <f>1-F56/F55</f>
-        <v>0.86567164179104483</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
